--- a/Dynamics of Atmospheric Flight/Project_PartIV/Fly_off_2_glider/Version_2_Glider.xlsx
+++ b/Dynamics of Atmospheric Flight/Project_PartIV/Fly_off_2_glider/Version_2_Glider.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\USU\Machine_Learning\Spring_2024\Dynamics of Atmospheric Flight\Project_PartIV\Dynamic Mode Glider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\USU\Machine_Learning\Spring_2024\Dynamics of Atmospheric Flight\Project_PartIV\Fly_off_2_glider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559D09DE-57C3-400C-88BC-0C02A457BEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965C3ACF-5627-4F42-88E6-1845D454BCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1157,7 +1157,7 @@
         <v>55</v>
       </c>
       <c r="B43" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1427,13 +1427,13 @@
       </c>
       <c r="B77" s="1">
         <f>B73+E77</f>
-        <v>2.4132717886475079E-2</v>
+        <v>2.6732717886475077E-2</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
       </c>
       <c r="E77">
-        <v>2.1299999999999999E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -1449,7 +1449,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="1">
-        <v>5.7858999999999998</v>
+        <v>5.7789999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -1457,7 +1457,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="1">
-        <v>-2.8835999999999999</v>
+        <v>-1.7345999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1465,7 +1465,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="1">
-        <v>-0.62549999999999994</v>
+        <v>-0.68569999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1473,7 +1473,7 @@
         <v>84</v>
       </c>
       <c r="B82" s="1">
-        <v>-0.27079999999999999</v>
+        <v>-0.28560000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1481,7 +1481,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1489,7 +1489,7 @@
         <v>86</v>
       </c>
       <c r="B84" s="1">
-        <v>0.49840000000000001</v>
+        <v>0.30009999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B87" s="1">
         <f>B76/B77</f>
-        <v>34.496736087341645</v>
+        <v>31.141614688613011</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B88" s="1">
         <f>B87*50</f>
-        <v>1724.8368043670823</v>
+        <v>1557.0807344306506</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1531,7 +1531,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>1.5299999999999999E-2</v>
+        <v>1.24E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1539,7 +1539,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>-1.24E-2</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1547,7 +1547,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>2.76E-2</v>
+        <v>2.7699999999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B94" s="1">
         <f>1/(PI()*B93*B11)</f>
-        <v>0.48438460941011624</v>
+        <v>0.48263592850971876</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
